--- a/ProjectStartUp/Заявки/June_KNVSH_mol_2018/Calc.xlsx
+++ b/ProjectStartUp/Заявки/June_KNVSH_mol_2018/Calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Druzhinin_Vasily\Documents\My_Project\GAM\trunk\ProjectStartUp\Заявки\June_KNVSH_mol_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MyWorks\trunk\ProjectStartUp\Заявки\June_KNVSH_mol_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">Средняя ЗП </t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Расчетный комплекс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заработная плата с налогами </t>
+  </si>
+  <si>
+    <t>Затраты на 1-й год</t>
+  </si>
+  <si>
+    <t>Сумма, руб</t>
   </si>
 </sst>
 </file>
@@ -372,25 +381,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G16"/>
+  <dimension ref="B3:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>70000</v>
       </c>
       <c r="D3" s="1">
@@ -403,7 +413,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2">
@@ -421,11 +431,11 @@
         <v>12529439.999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>50000</v>
       </c>
       <c r="D8" s="1">
@@ -438,14 +448,13 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" ref="E9:E14" si="0">D9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="1">
@@ -454,10 +463,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>100000</v>
       </c>
       <c r="D11" s="1">
@@ -470,7 +479,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1">
@@ -482,10 +491,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>25000</v>
       </c>
       <c r="D14" s="1">
@@ -501,6 +510,38 @@
       <c r="E16" s="1">
         <f>SUM(E5:E15)</f>
         <v>15379439.999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
